--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>testandandandandandandand</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>testandandandandandandand</t>
+          <t>testequalsand=and=and=and=and=and=and=and=and</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>testequalsand=and=and=and=and=and=and=and=and</t>
+          <t>testand=and=and=and=and=</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>testand=and=and=and=and=</t>
+          <t>testand1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -508,7 +508,11 @@
           <t>bearer of [RO:0000053]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>testand2</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>testand1</t>
+          <t>testand3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>testand2</t>
+          <t>testand4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>testand1</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -489,8 +489,6 @@
           <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,7 +508,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>testand2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -518,8 +516,6 @@
           <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -537,14 +533,11 @@
           <t>inheres in [RO:0000052]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>A relation between a specifically dependent continuant (the dependent) and an independent continuant (the bearer), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -562,14 +555,11 @@
           <t>has profile [BFO:0000119]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Inverse of process_profile_of</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -587,14 +577,11 @@
           <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c equalsDef. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -612,14 +599,11 @@
           <t>located in [RO:0001025]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -637,14 +621,11 @@
           <t>participates in [RO:0000056]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -662,14 +643,11 @@
           <t>is about [IAO:0000136]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -687,14 +665,11 @@
           <t>has disposition [RO:0000091]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -712,14 +687,11 @@
           <t>has output [RO:0002234]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -737,14 +709,11 @@
           <t>output of [RO:0002353]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Inverse of has output relation</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -762,14 +731,11 @@
           <t>realizes [BFO:0000055]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -787,14 +753,11 @@
           <t>realized in [BFO:0000054]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Inverse of realizes relation.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -807,7 +770,6 @@
           <t>has study sample</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
@@ -840,7 +802,6 @@
           <t>has study investigator</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
@@ -873,7 +834,6 @@
           <t>has BCI source</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
@@ -906,7 +866,6 @@
           <t>has BCI context</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
@@ -939,7 +898,6 @@
           <t>evaluates</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>is about [IAO:0000136]</t>
@@ -972,7 +930,6 @@
           <t>comparatively evaluates</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>is about [IAO:0000136]</t>
@@ -1005,7 +962,6 @@
           <t>difference between</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>is about [IAO:0000136]</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>testand5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -489,6 +489,8 @@
           <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,7 +510,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>testand6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -516,6 +518,8 @@
           <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -533,11 +537,14 @@
           <t>inheres in [RO:0000052]</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>A relation between a specifically dependent continuant (the dependent) and an independent continuant (the bearer), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -555,11 +562,14 @@
           <t>has profile [BFO:0000119]</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Inverse of process_profile_of</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -577,11 +587,14 @@
           <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c equalsDef. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -599,11 +612,14 @@
           <t>located in [RO:0001025]</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>A relation between two independent continuants, the target and the location, in which the target is entirely within the location</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -621,11 +637,14 @@
           <t>participates in [RO:0000056]</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>A relation between a continuant and a process, in which the continuant is somehow involved in the process</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -643,11 +662,14 @@
           <t>is about [IAO:0000136]</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -665,11 +687,14 @@
           <t>has disposition [RO:0000091]</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>A relation between an independent continuant (the bearer) and a disposition, in which the disposition specifically depends on the bearer for its existence</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -687,11 +712,14 @@
           <t>has output [RO:0002234]</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p.</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -709,11 +737,14 @@
           <t>output of [RO:0002353]</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Inverse of has output relation</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -731,11 +762,14 @@
           <t>realizes [BFO:0000055]</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -753,11 +787,14 @@
           <t>realized in [BFO:0000054]</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Inverse of realizes relation.</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -770,6 +807,7 @@
           <t>has study sample</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
@@ -802,6 +840,7 @@
           <t>has study investigator</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
@@ -834,6 +873,7 @@
           <t>has BCI source</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
@@ -866,6 +906,7 @@
           <t>has BCI context</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>has participant [RO:0000057]</t>
@@ -898,6 +939,7 @@
           <t>evaluates</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>is about [IAO:0000136]</t>
@@ -930,6 +972,7 @@
           <t>comparatively evaluates</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>is about [IAO:0000136]</t>
@@ -962,6 +1005,7 @@
           <t>difference between</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>is about [IAO:0000136]</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>testand5</t>
+          <t>test7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>testand6</t>
+          <t>test8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>testand5</t>
+          <t>test7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -489,7 +489,11 @@
           <t>A core relation that holds between a whole and its part</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>test8</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -510,7 +514,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>testand6</t>
+          <t>test9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -518,7 +522,11 @@
           <t>A relation between an independent continuant (the bearer) and a specifically dependent continuant (the dependent), in which the dependent specifically depends on the bearer for its existence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>test10</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test7</t>
+          <t>testand5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test8</t>
+          <t>test11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -514,7 +514,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>test9</t>
+          <t>testand6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>test10</t>
+          <t>test12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>testand5</t>
+          <t>test7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test11</t>
+          <t>test8</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -514,7 +514,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>testand6</t>
+          <t>test9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>test12</t>
+          <t>test10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -545,7 +545,11 @@
           <t>inheres in [RO:0000052]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>tes13</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>A relation between a specifically dependent continuant (the dependent) and an independent continuant (the bearer), in which the dependent specifically depends on the bearer for its existence</t>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Rels.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>BFO:0000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -757,7 +757,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BFO:0000055</t>
+          <t xml:space="preserve">BFO:0000051 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
